--- a/Setup/YAML/SXL-example.xlsx
+++ b/Setup/YAML/SXL-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="25545" windowHeight="13500" tabRatio="781" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="20610" windowHeight="11640" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1525">
   <si>
     <t>alarmCodeId</t>
   </si>
@@ -5275,11 +5275,6 @@
   <si>
     <t>False: Deactivate detector logic
 True: Activate detector logic</t>
-  </si>
-  <si>
-    <t>- Dark
-- NormalControl
-- YellowFlash</t>
   </si>
   <si>
     <t>51123</t>
@@ -7491,7 +7486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -7506,12 +7501,12 @@
     <row r="1" spans="1:8" s="66" customFormat="1">
       <c r="D1" s="67"/>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" ht="22.5">
+    <row r="2" spans="1:8" s="66" customFormat="1" ht="23.25">
       <c r="B2" s="68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="66" customFormat="1" ht="43.5">
+    <row r="4" spans="1:8" s="66" customFormat="1" ht="45">
       <c r="A4" s="69"/>
       <c r="B4" s="70" t="s">
         <v>67</v>
@@ -7522,7 +7517,7 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
     </row>
-    <row r="6" spans="1:8" s="66" customFormat="1" ht="22.5">
+    <row r="6" spans="1:8" s="66" customFormat="1" ht="23.25">
       <c r="A6" s="69"/>
       <c r="B6" s="68" t="s">
         <v>68</v>
@@ -7533,7 +7528,7 @@
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
     </row>
-    <row r="8" spans="1:8" s="66" customFormat="1" ht="22.5">
+    <row r="8" spans="1:8" s="66" customFormat="1" ht="23.25">
       <c r="B8" s="71" t="s">
         <v>39</v>
       </c>
@@ -8251,7 +8246,7 @@
         <v>79</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F25" s="102"/>
       <c r="G25" s="91"/>
@@ -15667,7 +15662,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -15739,9 +15734,7 @@
       <c r="B7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>1522</v>
-      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="102"/>
     </row>
@@ -16110,10 +16103,10 @@
         <v>1106</v>
       </c>
       <c r="E7" s="42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F7" s="120" t="s">
         <v>1524</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>1525</v>
       </c>
       <c r="G7" s="111">
         <v>2</v>
@@ -16799,7 +16792,7 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
